--- a/data/financial_time_series_data/financial_time_series_calibrations/zinc-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/zinc-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.25258696009044634, 0.21797593258860617, 0.2332947276494444, 0.22263181012358957, 0.4168504398817456, 0.23623188868210593, 0.2143796725892713, 0.19424242364604458, 0.19867236992249107, 0.15698687759633312, 0.17488772338702271, 0.15305503121444938, 0.17865630752913067, 0.20541856834833336, 0.16363777366356688, 0.14998147432887562, 0.14611546778720555, 0.12397716902668973, 0.15079325822268036]</t>
+    <t>[0.9999999999999999, 0.2797259506740059, 0.24900086961075893, 0.26949077737715676, 0.2618909636715644, 0.426479110316983, 0.2665015360641186, 0.2399550456955552, 0.22145681171563353, 0.22916581144241424, 0.1845653397671616, 0.20543203950323502, 0.18367172091167397, 0.21050976446574993, 0.22220306235239745, 0.18180292025591968, 0.18463158252494655, 0.17693472083943734, 0.16194323532437113, 0.16309724558913208]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.2590163508111495, 0.21849322228450127, 0.22919936749035894, 0.26149467565769147, 0.3237745069592172, 0.2185838817942732, 0.19955513693769017, 0.17664824043633395, 0.2086154968372668, 0.16515991718540746, 0.16868113179261457, 0.16232640224493666, 0.15967328714459456, 0.1622265011295381, 0.13378248466072254, 0.14120832897673705, 0.15402239310562757, 0.13418677445071722, 0.14689705531848932]</t>
+    <t>[0.9999999999999998, 0.28302540337385607, 0.24129123051551393, 0.2580413616587471, 0.28938846791947126, 0.3454669991273173, 0.2385277310581725, 0.21952658077006582, 0.2001513700262536, 0.2379972378118566, 0.19025281021938578, 0.19512638235546298, 0.1839774940929245, 0.1862512062393665, 0.18120219439184418, 0.15355485208200761, 0.16721335281011498, 0.17826433311355802, 0.16017036243377217, 0.15292910102105775]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[1.0, -0.0002703759838989657, -0.021003629998874195, -0.032617266914086535, -0.038620045378157525, 0.3104179679214549, -0.0021862482309711745, 0.024676328814873354, -0.0009056348000959117, -0.0038641263678660747, -0.06594555141554542, -0.04778972823700245, -0.038568537814385885, -0.002503237336769498, 0.039306308591957405, -0.017745604589805102, -0.023602582530362272, -0.04465798964643314, -0.060816197545603266, -0.028669702033884727]</t>
+    <t>[1.0, -0.007575341520823182, -0.019325526781894004, -0.01681443787968801, -0.0366506087800234, 0.29539169256332315, -0.002825172575298081, 0.025208367716528058, 0.0025409853046714954, -0.0029422469368951287, -0.07616189181066904, -0.042419428338523885, -0.04010566545216876, -0.0039219378641295434, 0.03203312699760767, -0.035322937253569796, -0.000986140551119544, -0.04316362904677151, -0.04289954659174672, -0.039593526413248266]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[0.9999999999999999, 0.0004676088599647633, -0.02095352733807903, -0.03316525682029443, -0.038599037969873524, 0.3099755590604995, -0.0011973071399435974, 0.024839079563204036, -0.0004152391501257935, -0.003044124289353733, -0.06608402925502255, -0.047424735261551554, -0.037995584649338096, -0.0019149817943322522, 0.04066764378264819, -0.01707294139507888, -0.023303672927699078, -0.0440603652206585, -0.060565755821467206, -0.0279868823823532]</t>
-  </si>
-  <si>
-    <t>[0.9999999999999999, 0.020218052274143583, -0.017987560166422178, 0.001320742084632113, -0.01593790457703244, 0.24572072193707523, -0.0069903574365254165, 0.0191817852163228, -0.02346873290582793, -0.003944662486433537, -0.04763049205054739, -0.03430387037730003, -0.03567737726458859, -0.013160551237106206, 0.04516696492157638, -0.027635241900779768, -0.01679397124900664, -0.026895261925194355, -0.05064239841025293, -0.018577964541152073]</t>
+    <t>[1.0, -0.007072368391461506, -0.01886108165203145, -0.017316884045910263, -0.03723533905847705, 0.2946173805377546, -0.00206227953597705, 0.02506684424760601, 0.0028190125079451955, -0.0025894106223187576, -0.07672885664341558, -0.042048094749013255, -0.039638980977046503, -0.003520674284241749, 0.033101780356912795, -0.03506907296468009, -0.001063842940547818, -0.04263048389440927, -0.04244179584597065, -0.03928572554808717]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.009712893278950526, -0.01693861572256187, 0.01031357864962404, -0.020627588515426735, 0.22418305593293247, -0.0060780062646489455, 0.026661235035804774, -0.020432479636356, -0.005480270973999062, -0.05683469109650953, -0.031117653915863144, -0.036466222794847, -0.00666065266668414, 0.04671001472156489, -0.04279537767878011, 0.0007994801476868401, -0.023810269584477538, -0.03615257617490866, -0.031384973727866555]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.02593244657879423</v>
+        <v>0.008916311388064143</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.8322916158076636</v>
+        <v>0.8328228104379528</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>65.00800463600758</v>
+        <v>67.82037903986348</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -545,7 +545,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.8835098335854765</v>
+        <v>0.855294681360805</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-2.32256187444717</v>
+        <v>-2.186409598444523</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.7840915543792709</v>
+        <v>0.7959662244860162</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>53.61790160812556</v>
+        <v>55.76297824117911</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>2.499771463899311</v>
+        <v>2.462913177027644</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.7286996154842171</v>
+        <v>0.734395547537864</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>41.49333159035533</v>
+        <v>44.32505331810656</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.01959257089766838</v>
+        <v>0.02988465038507307</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.2437428974517225</v>
+        <v>0.244286917739708</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.08196289620046414</v>
+        <v>0.09536980095588932</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9180371518230247</v>
+        <v>0.9046301990441107</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.02404507333627934</v>
+        <v>-0.002319332802289378</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.247176943251281</v>
+        <v>0.2480089963239911</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.06636574118345585</v>
+        <v>0.08236600999930936</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9190637193571399</v>
+        <v>0.9049871957104938</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.02914107880281368</v>
+        <v>0.02529384690701313</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.04540099676221379</v>
+        <v>0.07554782284192292</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.2035823066711887</v>
+        <v>0.2093343597947837</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.07595619762525964</v>
+        <v>0.09283173354892066</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9241694488609393</v>
+        <v>0.9100752859855565</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>-0.0002512753242768607</v>
+        <v>-0.005814042285948937</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.8178229721536755</v>
+        <v>0.8154383811893925</v>
       </c>
     </row>
   </sheetData>

--- a/data/financial_time_series_data/financial_time_series_calibrations/zinc-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/zinc-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[0.9999999999999999, 0.2797259506740059, 0.24900086961075893, 0.26949077737715676, 0.2618909636715644, 0.426479110316983, 0.2665015360641186, 0.2399550456955552, 0.22145681171563353, 0.22916581144241424, 0.1845653397671616, 0.20543203950323502, 0.18367172091167397, 0.21050976446574993, 0.22220306235239745, 0.18180292025591968, 0.18463158252494655, 0.17693472083943734, 0.16194323532437113, 0.16309724558913208]</t>
+    <t>[0.9999999999999999, 0.06215975008578944, -0.03874468360361838, -0.061582271216523425, -0.08237299701014739, 0.07323966499156476, 0.026154973870079645, 0.06220088317795149, 0.020875276931385224, -0.007609029023550218, -0.03824291952028871, 0.0028674134719670606, -0.010368340788157345, 0.02219284556453666, 0.06840160467984135, -0.003471240020818779, 0.011414359484485862, -0.025980045545356045, -0.0579487689071359, -0.0062741254113175575]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[0.9999999999999998, 0.28302540337385607, 0.24129123051551393, 0.2580413616587471, 0.28938846791947126, 0.3454669991273173, 0.2385277310581725, 0.21952658077006582, 0.2001513700262536, 0.2379972378118566, 0.19025281021938578, 0.19512638235546298, 0.1839774940929245, 0.1862512062393665, 0.18120219439184418, 0.15355485208200761, 0.16721335281011498, 0.17826433311355802, 0.16017036243377217, 0.15292910102105775]</t>
+    <t>[1.0, 0.09909338660391899, -0.00668933280956113, -0.004782198556403295, -0.011653076687242737, 0.004257379684546426, -0.00046093047410202247, 0.023501157928179542, -0.0019310053924041207, -0.015798768000270254, 0.0026348785464654265, 0.019712418284004465, -0.00013433881038708742, -0.002046770211165075, 0.04401195233127641, 0.006999200638518649, -0.011773681288362347, -0.01253345363513391, -0.03411747744664324, 0.007406039158363566]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[1.0, -0.007575341520823182, -0.019325526781894004, -0.01681443787968801, -0.0366506087800234, 0.29539169256332315, -0.002825172575298081, 0.025208367716528058, 0.0025409853046714954, -0.0029422469368951287, -0.07616189181066904, -0.042419428338523885, -0.04010566545216876, -0.0039219378641295434, 0.03203312699760767, -0.035322937253569796, -0.000986140551119544, -0.04316362904677151, -0.04289954659174672, -0.039593526413248266]</t>
+    <t>[1.0, 0.006977462441060449, -0.0326738300261101, -0.04647165624428755, -0.0689838657144871, 0.07902389881291176, 0.012649164828836965, 0.05236694388604257, 0.03247725681316686, 0.010837372770768178, -0.05085641916671334, -0.011323772983742705, -0.014582525251138366, 0.013965100228399129, 0.06501678055584192, -0.006305935898742095, 0.0015729508786241212, -0.03628782479239634, -0.06674992360273196, -0.01398842671000284]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[1.0, -0.007072368391461506, -0.01886108165203145, -0.017316884045910263, -0.03723533905847705, 0.2946173805377546, -0.00206227953597705, 0.02506684424760601, 0.0028190125079451955, -0.0025894106223187576, -0.07672885664341558, -0.042048094749013255, -0.039638980977046503, -0.003520674284241749, 0.033101780356912795, -0.03506907296468009, -0.001063842940547818, -0.04263048389440927, -0.04244179584597065, -0.03928572554808717]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.009712893278950526, -0.01693861572256187, 0.01031357864962404, -0.020627588515426735, 0.22418305593293247, -0.0060780062646489455, 0.026661235035804774, -0.020432479636356, -0.005480270973999062, -0.05683469109650953, -0.031117653915863144, -0.036466222794847, -0.00666065266668414, 0.04671001472156489, -0.04279537767878011, 0.0007994801476868401, -0.023810269584477538, -0.03615257617490866, -0.031384973727866555]</t>
+    <t>[1.0, 0.010572173100208308, -0.032898994409895466, -0.04602939238753367, -0.06755681893301396, 0.07874233356838636, 0.013777065646616161, 0.0538928215250493, 0.032185984125011544, 0.012431430380874724, -0.052078141529996916, -0.013658533645919003, -0.015159959193128333, 0.014309830901734629, 0.06485003096257828, -0.006594478410691676, 0.0018476034152081057, -0.03563285386045548, -0.06565996505296502, -0.013259785413006797]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.00016959046261137773, -0.044384961319309434, -0.060309350341342625, -0.08655987417027342, 0.07492713792244285, 0.02239734906431086, 0.06619489806173044, 0.020002799939605746, -0.005606942470568652, -0.03696970822974399, -0.0025951826561074784, -0.013243689816623673, 0.019589654845134676, 0.07210337940531855, -0.009063558004136258, 0.01043549507477568, -0.027957025285421655, -0.05754151371929071, -0.0047611839689419766]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.008916311388064143</v>
+        <v>0.007375923518566196</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.8328228104379528</v>
+        <v>0.7875588425592317</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>67.82037903986348</v>
+        <v>0.1073946092401755</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-2.186409598444523</v>
+        <v>-0.174096101147227</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.7959662244860162</v>
+        <v>0.5887329104871443</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>55.76297824117911</v>
+        <v>0.06460481782969311</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>2.462913177027644</v>
+        <v>0.1754007693424331</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.734395547537864</v>
+        <v>0.589141098178508</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>44.32505331810656</v>
+        <v>0.06963167289372203</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.02988465038507307</v>
+        <v>-0.001189308337901704</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.244286917739708</v>
+        <v>0.1108675359393501</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.09536980095588932</v>
+        <v>0.06806664269005717</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9046301990441107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.002319332802289378</v>
+        <v>0.0004521447621128037</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.2480089963239911</v>
+        <v>0.1113486810657358</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.08236600999930936</v>
+        <v>0.09785130802689415</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9049871957104938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.02529384690701313</v>
+        <v>-0.0703823600543487</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.07554782284192292</v>
+        <v>0.006379760994783396</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.2093343597947837</v>
+        <v>0.1007526114403123</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.09283173354892066</v>
+        <v>0.09528856332450912</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9100752859855565</v>
+        <v>3.798828318868542E-10</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>-0.005814042285948937</v>
+        <v>-0.08089545952436365</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.8154383811893925</v>
+        <v>0.7901122680539975</v>
       </c>
     </row>
   </sheetData>

--- a/data/financial_time_series_data/financial_time_series_calibrations/zinc-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/zinc-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.06671694544463878, -0.030056207686681335, -0.05834872186792907, -0.08107590841848127, 0.08669126593743022, 0.02132986472987349, 0.053592711977203646, 0.016041104129368874, -0.01190601982710847, -0.033599995763944256, -0.008642105792553043, -0.015404906543375818, 0.017974969036059964, 0.0642513561976709, 0.012654680805722249, 0.008603486016917806, -0.02491576776636567, -0.05989939769506894, -0.005979969230192037]</t>
+    <t>[1.0, 0.25258696009044634, 0.21797593258860617, 0.2332947276494444, 0.22263181012358957, 0.4168504398817456, 0.23623188868210593, 0.2143796725892713, 0.19424242364604458, 0.19867236992249107, 0.15698687759633312, 0.17488772338702271, 0.15305503121444938, 0.17865630752913067, 0.20541856834833336, 0.16363777366356688, 0.14998147432887562, 0.14611546778720555, 0.12397716902668973, 0.15079325822268036]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[0.9999999999999998, 0.10143027840796096, -0.0007704587206055499, 0.008598511273167991, -0.0008307436495633196, 0.002039479245568557, -0.009231902004838293, 0.01628960857851504, -0.010274308852717564, -0.017868530017776732, 0.005967469239402856, 0.012366164859230205, 0.005365875293582062, -0.004908094248700526, 0.03380715936492057, 0.00860779456893044, -0.008664704086707326, -0.002730404155606273, -0.024688906740361078, 0.001895984649954934]</t>
+    <t>[1.0, 0.2590163508111495, 0.21849322228450127, 0.22919936749035894, 0.26149467565769147, 0.3237745069592172, 0.2185838817942732, 0.19955513693769017, 0.17664824043633395, 0.2086154968372668, 0.16515991718540746, 0.16868113179261457, 0.16232640224493666, 0.15967328714459456, 0.1622265011295381, 0.13378248466072254, 0.14120832897673705, 0.15402239310562757, 0.13418677445071722, 0.14689705531848932]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[1.0, 0.008397265891656453, -0.026826074312171447, -0.053371913972702585, -0.0754414342418547, 0.094128146100731, 0.013299327071059738, 0.04882003893937418, 0.031213465445917347, 0.005006814450747306, -0.046142092832047864, -0.025803786360031, -0.018801709098854005, 0.01909857881111322, 0.06599397198323731, 0.012863807394804229, -0.009857998919803046, -0.03924412646390464, -0.07233900630664365, -0.00892045217781279]</t>
+    <t>[1.0, -0.0002703759838989657, -0.021003629998874195, -0.032617266914086535, -0.038620045378157525, 0.3104179679214549, -0.0021862482309711745, 0.024676328814873354, -0.0009056348000959117, -0.0038641263678660747, -0.06594555141554542, -0.04778972823700245, -0.038568537814385885, -0.002503237336769498, 0.039306308591957405, -0.017745604589805102, -0.023602582530362272, -0.04465798964643314, -0.060816197545603266, -0.028669702033884727]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[1.0, 0.010195158516918393, -0.027116058525731415, -0.05309966608974133, -0.07431794295152305, 0.09400287779615253, 0.014477400142424029, 0.04977684327963817, 0.031026851234703882, 0.006756650837225543, -0.046722881637755474, -0.027656047107491658, -0.0191708697224309, 0.01881337790232568, 0.06569701685670087, 0.012552506793332956, -0.008926790177222373, -0.03951711638386747, -0.07149565161141133, -0.008206026265170398]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.0003832271333531927, -0.036155997335905264, -0.05686590550774497, -0.08508076464668712, 0.09041046896604127, 0.01663763986353954, 0.05597360233065932, 0.014735934137319202, -0.009679788908434067, -0.031278849663976094, -0.013194666429469004, -0.017986971043406436, 0.015880187966869946, 0.06649035720302468, 0.006903259286570515, 0.007420565503847142, -0.02710598552868087, -0.0598873187116121, -0.005271247084465235]</t>
+    <t>[0.9999999999999999, 0.0004676088599647633, -0.02095352733807903, -0.03316525682029443, -0.038599037969873524, 0.3099755590604995, -0.0011973071399435974, 0.024839079563204036, -0.0004152391501257935, -0.003044124289353733, -0.06608402925502255, -0.047424735261551554, -0.037995584649338096, -0.0019149817943322522, 0.04066764378264819, -0.01707294139507888, -0.023303672927699078, -0.0440603652206585, -0.060565755821467206, -0.0279868823823532]</t>
+  </si>
+  <si>
+    <t>[0.9999999999999999, 0.020218052274143583, -0.017987560166422178, 0.001320742084632113, -0.01593790457703244, 0.24572072193707523, -0.0069903574365254165, 0.0191817852163228, -0.02346873290582793, -0.003944662486433537, -0.04763049205054739, -0.03430387037730003, -0.03567737726458859, -0.013160551237106206, 0.04516696492157638, -0.027635241900779768, -0.01679397124900664, -0.026895261925194355, -0.05064239841025293, -0.018577964541152073]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.005387841393099726</v>
+        <v>-0.02593244657879423</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.7946044397519775</v>
+        <v>0.8322916158076636</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.1061431464884895</v>
+        <v>65.00800463600758</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.1733444353925714</v>
+        <v>-2.32256187444717</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.5978026027980229</v>
+        <v>0.7840915543792709</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.06319910082623431</v>
+        <v>53.61790160812556</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.1700135186104978</v>
+        <v>2.499771463899311</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.6047865828604897</v>
+        <v>0.7286996154842171</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.06835200489143246</v>
+        <v>41.49333159035533</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001381979479636256</v>
+        <v>0.01959257089766838</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.1090844142954769</v>
+        <v>0.2437428974517225</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.07017227586609673</v>
+        <v>0.08196289620046414</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>4.048845325989637E-13</v>
+        <v>0.9180371518230247</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0001185172979315956</v>
+        <v>-0.02404507333627934</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.1093680651888023</v>
+        <v>0.247176943251281</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.1006449765921554</v>
+        <v>0.06636574118345585</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>1.444500219151446E-12</v>
+        <v>0.9190637193571399</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>-0.06820205024936239</v>
+        <v>0.02914107880281368</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.00398149944165639</v>
+        <v>0.04540099676221379</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.09906419186870367</v>
+        <v>0.2035823066711887</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.09860288139105569</v>
+        <v>0.07595619762525964</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>1.506456412644497E-09</v>
+        <v>0.9241694488609393</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>-0.07602949655585985</v>
+        <v>-0.0002512753242768607</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.7960034932844645</v>
+        <v>0.8178229721536755</v>
       </c>
     </row>
   </sheetData>

--- a/data/financial_time_series_data/financial_time_series_calibrations/zinc-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/zinc-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.25258696009044634, 0.21797593258860617, 0.2332947276494444, 0.22263181012358957, 0.4168504398817456, 0.23623188868210593, 0.2143796725892713, 0.19424242364604458, 0.19867236992249107, 0.15698687759633312, 0.17488772338702271, 0.15305503121444938, 0.17865630752913067, 0.20541856834833336, 0.16363777366356688, 0.14998147432887562, 0.14611546778720555, 0.12397716902668973, 0.15079325822268036]</t>
+    <t>[0.9999999999999999, 0.25258696009044623, 0.21797593258860612, 0.2332947276494441, 0.2226318101235896, 0.416850439881746, 0.23623188868210573, 0.2143796725892713, 0.19424242364604477, 0.19867236992249115, 0.15698687759633287, 0.17488772338702258, 0.15305503121444936, 0.17865630752913078, 0.20541856834833327, 0.163637773663567, 0.14998147432887557, 0.14611546778720533, 0.12397716902668968, 0.15079325822268025]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.2590163508111495, 0.21849322228450127, 0.22919936749035894, 0.26149467565769147, 0.3237745069592172, 0.2185838817942732, 0.19955513693769017, 0.17664824043633395, 0.2086154968372668, 0.16515991718540746, 0.16868113179261457, 0.16232640224493666, 0.15967328714459456, 0.1622265011295381, 0.13378248466072254, 0.14120832897673705, 0.15402239310562757, 0.13418677445071722, 0.14689705531848932]</t>
+    <t>[1.0, 0.2590163508111496, 0.21849322228450122, 0.22919936749035888, 0.2614946756576914, 0.32377450695921683, 0.21858388179427324, 0.19955513693769017, 0.17664824043633387, 0.20861549683726685, 0.1651599171854075, 0.16868113179261443, 0.1623264022449367, 0.1596732871445945, 0.16222650112953813, 0.1337824846607225, 0.14120832897673705, 0.15402239310562774, 0.13418677445071722, 0.14689705531848948]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[1.0, -0.0002703759838989657, -0.021003629998874195, -0.032617266914086535, -0.038620045378157525, 0.3104179679214549, -0.0021862482309711745, 0.024676328814873354, -0.0009056348000959117, -0.0038641263678660747, -0.06594555141554542, -0.04778972823700245, -0.038568537814385885, -0.002503237336769498, 0.039306308591957405, -0.017745604589805102, -0.023602582530362272, -0.04465798964643314, -0.060816197545603266, -0.028669702033884727]</t>
+    <t>[1.0, -0.00027037598389896355, -0.021003629998874198, -0.032617266914086535, -0.03862004537815752, 0.3104179679214549, -0.0021862482309711693, 0.024676328814873374, -0.0009056348000959086, -0.0038641263678660677, -0.06594555141554546, -0.04778972823700247, -0.038568537814385864, -0.0025032373367695083, 0.03930630859195737, -0.017745604589805095, -0.023602582530362275, -0.044657989646433145, -0.06081619754560329, -0.028669702033884723]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[0.9999999999999999, 0.0004676088599647633, -0.02095352733807903, -0.03316525682029443, -0.038599037969873524, 0.3099755590604995, -0.0011973071399435974, 0.024839079563204036, -0.0004152391501257935, -0.003044124289353733, -0.06608402925502255, -0.047424735261551554, -0.037995584649338096, -0.0019149817943322522, 0.04066764378264819, -0.01707294139507888, -0.023303672927699078, -0.0440603652206585, -0.060565755821467206, -0.0279868823823532]</t>
-  </si>
-  <si>
-    <t>[0.9999999999999999, 0.020218052274143583, -0.017987560166422178, 0.001320742084632113, -0.01593790457703244, 0.24572072193707523, -0.0069903574365254165, 0.0191817852163228, -0.02346873290582793, -0.003944662486433537, -0.04763049205054739, -0.03430387037730003, -0.03567737726458859, -0.013160551237106206, 0.04516696492157638, -0.027635241900779768, -0.01679397124900664, -0.026895261925194355, -0.05064239841025293, -0.018577964541152073]</t>
+    <t>[1.0, 0.00047032355988258835, -0.020950475543073062, -0.03316227422269225, -0.03859613317181654, 0.3099776679975139, -0.0011956388850852956, 0.024841032785639632, -0.00041369381936534274, -0.0030428011621538137, -0.06608321737071944, -0.04742365580434441, -0.03799480583172955, -0.001914375804617804, 0.040667722370996785, -0.017072665871889287, -0.023303288327771874, -0.04406013164730555, -0.060565523116324294, -0.027986917086401233]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.020218001584960815, -0.01798760143124543, 0.0013207043271401492, -0.015937947265358337, 0.24572070869352822, -0.006990377325694635, 0.019181773531709707, -0.02346874550061267, -0.003944673100946892, -0.04763049783993724, -0.034303866557233414, -0.035677376231973465, -0.013160551138290014, 0.04516696157621097, -0.027635240001491562, -0.016793959413677326, -0.026895245122191387, -0.05064238561427998, -0.01857795733298401]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.02593244657879423</v>
+        <v>-0.02593244657879393</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.8322916158076636</v>
+        <v>0.8322916158076643</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -545,7 +545,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.8835098335854765</v>
+        <v>0.4690763052208836</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.7840915543792709</v>
+        <v>0.7840915543792703</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>2.499771463899311</v>
+        <v>2.499771463899317</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.7286996154842171</v>
+        <v>0.7286996154842175</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.01959257089766838</v>
+        <v>0.0195925708976683</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.02404507333627934</v>
+        <v>-0.02401365733940726</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.247176943251281</v>
+        <v>0.2471712709858957</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.06636574118345585</v>
+        <v>0.066366716502582</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9190637193571399</v>
+        <v>0.9190672676651839</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.02914107880281368</v>
+        <v>0.02913203152252802</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.04540099676221379</v>
+        <v>0.04540190763153879</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.2035823066711887</v>
+        <v>0.2035830016916501</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.07595619762525964</v>
+        <v>0.07595626498641815</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9241694488609393</v>
+        <v>0.9241693712340965</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>-0.0002512753242768607</v>
+        <v>-0.00025126459943577</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.8178229721536755</v>
+        <v>0.8178229809890963</v>
       </c>
     </row>
   </sheetData>
